--- a/Final Project - Final Version/SpreadSheets/initiativeList.xlsx
+++ b/Final Project - Final Version/SpreadSheets/initiativeList.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,32 +493,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Baron Cromwell</t>
+          <t>Player 1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>12</v>
-      </c>
-      <c r="G2" t="n">
-        <v>87</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -526,26 +526,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Drow Queen</t>
+          <t>Enemy 2</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -559,26 +559,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Crab Zombie 2</t>
+          <t>Enemy 1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -592,299 +592,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Crab Gorilla Thing</t>
+          <t>Player 2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Saoirse</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>75</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Caszire</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>14</v>
-      </c>
-      <c r="G7" t="n">
-        <v>98</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Crab Zombie 3</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HXR-45</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>18</v>
-      </c>
-      <c r="G9" t="n">
-        <v>52</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Gwen</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>63</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Keely</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>14</v>
-      </c>
-      <c r="G11" t="n">
-        <v>52</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Hanoi Jones</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>14</v>
-      </c>
-      <c r="G12" t="n">
-        <v>50</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Crab Zombie 1</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G13" t="n">
-        <v>20</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
